--- a/Population.xlsx
+++ b/Population.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kasho\Documents\GitHub\interactive_map\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{592B0F13-2D24-4B96-92AC-7D35D35D5CBA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{005CB586-D884-4370-B689-4DA8ECCD7273}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2496" yWindow="4692" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1898" uniqueCount="856">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1899" uniqueCount="858">
   <si>
     <t>Iraq</t>
   </si>
@@ -2594,6 +2594,12 @@
   </si>
   <si>
     <t>ID</t>
+  </si>
+  <si>
+    <t>BT</t>
+  </si>
+  <si>
+    <t>BBR</t>
   </si>
 </sst>
 </file>
@@ -2951,8 +2957,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AR200"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A200" workbookViewId="0">
-      <selection activeCell="A205" sqref="A205"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6739,7 +6745,7 @@
         <v>516</v>
       </c>
       <c r="B32" t="s">
-        <v>692</v>
+        <v>856</v>
       </c>
       <c r="C32" t="s">
         <v>606</v>
